--- a/doc/assets/example_config.xlsx
+++ b/doc/assets/example_config.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,35 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>charging_mode</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>battery_mode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_capacity_kw</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_starttime</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_endtime</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>insulation_label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>heating_type</t>
         </is>
@@ -521,7 +546,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,15 +556,34 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Logistics_fleet_hgv_E', 'Building_solarpanels_0kWp', 'Building_gas_burner_60kW']</t>
+          <t>['EHGV', 'EHGV', 'EHGV', 'EHGV', 'EHGV', 'EHGV', 'Diesel_Truck', 'Grid_battery_7MWh', 'Building_solarpanels_0kWp', 'Building_gas_burner_60kW', 'Building_solarpanels_10kWp']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>MAX_POWER</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BALANCE</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>900</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>GASBURNER</t>
         </is>
@@ -582,11 +626,16 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Building_solarpanels_0kWp', 'Building_gas_burner_60kW']</t>
+          <t>['INDUSTRY_OTHER_HEAT_DEMAND', 'Building_solarpanels_0kWp', 'Building_gas_burner_60kW']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>GASBURNER</t>
         </is>
@@ -630,6 +679,11 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -668,7 +722,16 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BALANCE</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -803,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +900,21 @@
           <t>parent_actor</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_capacity_kw</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_starttime</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>nfATO_endtime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -864,6 +942,9 @@
           <t>hol1</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -891,6 +972,9 @@
           <t>hol1</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -918,6 +1002,9 @@
           <t>hol1</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -945,6 +1032,9 @@
           <t>hol1</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -968,6 +1058,9 @@
           <t>nat</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -978,7 +1071,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Actor</t>
+          <t>NonFirmActor</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -990,6 +1083,15 @@
         <is>
           <t>sup1</t>
         </is>
+      </c>
+      <c r="F7" t="n">
+        <v>900</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1014,6 +1116,9 @@
           <t>nat</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1026,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,7 +1216,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1140,12 +1245,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>eurpkWh</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1169,7 +1274,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1230,6 +1335,238 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>gridOperator policy value</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fixed_electricity_price</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EUR p kWh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Fixed_electricity_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fixed_heat_price</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EUR p kWh</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fixed_heat_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fixed_methane_price</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EUR p kWh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fixed_methane_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fixed_hydrogen_price</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EUR p kWh</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fixed_hydrogen_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Energy_supplier_electricity_price_margin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>p_variableElectricityPriceOverNational_eurpkWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fixed_electricity_feed_in_tariff</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EUR_pKWh</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>p_fixedFeedinTariff_eurpkWh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fixed_diesel_price</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EUR_pKWh</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fixed_diesel_price</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Time_buffer_for_spread_charging</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>minutes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Time_buffer_for_spread_charging, Integer value</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,7 +1651,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1324,12 +1661,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENERGYHOLON</t>
+          <t>ENERGYSUPPLIER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>com2</t>
+          <t>com1</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1693,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>com3</t>
+          <t>com2</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>VARIABLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1378,37 +1715,91 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENERGYHOLON</t>
+          <t>ENERGYSUPPLIER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>com4</t>
+          <t>com2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>ENERGYHOLON</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>com3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CONNECTIONOWNER</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEFAULT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>com4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ENERGYHOLON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GOPACS</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>GRIDOPERATOR</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>hol1</t>
         </is>

--- a/doc/assets/example_config.xlsx
+++ b/doc/assets/example_config.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Grid_MS_congestion_price</t>
+          <t>Grid_MS_congestion_price_eurpkWh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Grid_MS_congestion_threshold</t>
+          <t>Grid_MS_congestion_threshold_fr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Grid_MS_congestion_pricing_consumption</t>
+          <t>Grid_MS_congestion_pricing_consumption_eurpkWh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Grid_MS_congestion_pricing_production</t>
+          <t>Grid_MS_congestion_pricing_production_eurpkWh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fixed_electricity_price</t>
+          <t>Fixed_electricity_price_eurpkWh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fixed_heat_price</t>
+          <t>Fixed_heat_price_eurpkWh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fixed_methane_price</t>
+          <t>Fixed_methane_price_eurpkWh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fixed_hydrogen_price</t>
+          <t>Fixed_hydrogen_price_eurpkWh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Energy_supplier_electricity_price_margin</t>
+          <t>Energy_supplier_electricity_price_margin_eurpkWh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fixed_electricity_feed_in_tariff</t>
+          <t>Fixed_electricity_feed_in_tariff_eurpkWh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fixed_diesel_price</t>
+          <t>Fixed_diesel_price_eurpkWh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Time_buffer_for_spread_charging</t>
+          <t>Time_buffer_for_spread_charging_min</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
